--- a/資料/searchテスト.xlsx
+++ b/資料/searchテスト.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="202">
   <si>
     <t>単体テスト</t>
   </si>
@@ -425,7 +425,199 @@
     <t>カナ(名)、メールアドレスを入力してアカウント権限選択を管理者で検索を押した場合</t>
   </si>
   <si>
+    <t>アカウント一覧画面表示</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>検索画面が表示されアカウント一覧は非表示になっている事</t>
+  </si>
+  <si>
     <t>結合テスト</t>
+  </si>
+  <si>
+    <t>TOP画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>登録画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>登録確認画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>登録完了画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>更新画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>更新確認画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>更新完了画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>削除画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>削除確認画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>削除完了画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面ナビゲーションからアカウント一覧画面に遷移された時</t>
+  </si>
+  <si>
+    <t>登録機能</t>
+  </si>
+  <si>
+    <t>アカウント登録フォームから新しくデータを登録した時</t>
+  </si>
+  <si>
+    <t>全ての一覧を表示した際、検索結果に新たに登録された入力値列が追加されている事</t>
+  </si>
+  <si>
+    <t>新たに作成したアカウントが、名前(姓)検索時に検索結果に表示される事</t>
+  </si>
+  <si>
+    <t>新たに作成したアカウントが、名前(名)検索時に検索結果に表示される事</t>
+  </si>
+  <si>
+    <t>新たに作成したアカウントが、カナ(姓)検索時に検索結果に表示される事</t>
+  </si>
+  <si>
+    <t>新たに作成したアカウントが、カナ(名)検索時に検索結果に表示される事</t>
+  </si>
+  <si>
+    <t>新たに作成したアカウントが、メールアドレス検索時に検索結果に表示される事</t>
+  </si>
+  <si>
+    <t>新たに作成したアカウントが、性別検索時に検索結果に表示される事</t>
+  </si>
+  <si>
+    <t>新たに作成したアカウントが、アカウント権限検索時に検索結果に表示される事</t>
+  </si>
+  <si>
+    <t>更新機能</t>
+  </si>
+  <si>
+    <t>アカウント更新から新しく名前(姓)を更新した時</t>
+  </si>
+  <si>
+    <t>更新によって値を変えた場合に、検索で更新した部分の入力値で検索結果が表示される</t>
+  </si>
+  <si>
+    <t>更新によって値を変えた場合に、検索時に更新前の値が表示されなくなる</t>
+  </si>
+  <si>
+    <t>全ての値を検索した際に更新した入力値でリストに表示される</t>
+  </si>
+  <si>
+    <t>アカウント更新から新しく名前(名)を更新した時</t>
+  </si>
+  <si>
+    <t>アカウント更新から新しくカナ(姓)を更新した時</t>
+  </si>
+  <si>
+    <t>アカウント更新から新しくカナ(名)を更新した時</t>
+  </si>
+  <si>
+    <t>アカウント更新から新しくメールアドレスを更新した時</t>
+  </si>
+  <si>
+    <t>アカウント更新から新しく性別を更新した時</t>
+  </si>
+  <si>
+    <t>アカウント更新から新しくアカウント権限を更新した時</t>
+  </si>
+  <si>
+    <t>アカウント更新から新しくデータを更新した時</t>
+  </si>
+  <si>
+    <t>削除機能</t>
+  </si>
+  <si>
+    <t>アカウント削除から削除フラグを有効にした時</t>
+  </si>
+  <si>
+    <t>検索結果を表示した際に削除フラが無効から有効に変わっている事</t>
+  </si>
+  <si>
+    <t>表示されているIDの一覧</t>
+  </si>
+  <si>
+    <t>検索を押してボタンでアカウント一覧画面が表示された時</t>
+  </si>
+  <si>
+    <t>データベースのIDカラム値に紐付いた検索結果がIDの欄に表示されている事</t>
+  </si>
+  <si>
+    <t>表示されている名前(姓)の一覧</t>
+  </si>
+  <si>
+    <t>データベースのfamily_nameカラム値に紐づいた検索結果が名前(姓)欄に表示されている事</t>
+  </si>
+  <si>
+    <t>表示されている名前(名)の一覧</t>
+  </si>
+  <si>
+    <t>データベースのlast_nameカラム値に紐づいた検索結果が名前(名)欄に表示されている事</t>
+  </si>
+  <si>
+    <t>表示されているカナ(姓)の一覧</t>
+  </si>
+  <si>
+    <t>データベースのfamily_name_kanaカラム値に紐づいた検索結果がカナ(姓)欄に表示されている事</t>
+  </si>
+  <si>
+    <t>表示されているカナ(名)の一覧</t>
+  </si>
+  <si>
+    <t>データベースのlast_name_kanaカラム値に紐付いた検索結果がカナ(名)欄に表示されている事</t>
+  </si>
+  <si>
+    <t>表示されているメールアドレスの一覧</t>
+  </si>
+  <si>
+    <t>データベースのmailカラム値に紐付いた検索結果がメールアドレス欄に表示されている事</t>
+  </si>
+  <si>
+    <t>表示されている性別の一覧</t>
+  </si>
+  <si>
+    <t>データベースのgenderカラム値が性別の欄に0の場合は「男」、1の場合は「女」で検索ワードに紐付いて表示されている事</t>
+  </si>
+  <si>
+    <t>表示されているアカウント権限の一覧</t>
+  </si>
+  <si>
+    <t>データベースのauthorityカラムの値がアカウント権限の欄に0の場合は「一般」、1の場合は「管理者」で検索ワードに紐付いて表示されている事</t>
+  </si>
+  <si>
+    <t>表示されている削除フラグの一覧</t>
+  </si>
+  <si>
+    <t>データベースのdelete_flagカラムの値が削除フラグの欄に0の場合は「有効」、1の場合は「無効」で検索ワードに紐付いて表示されている事</t>
+  </si>
+  <si>
+    <t>表示されている登録日時の一覧</t>
+  </si>
+  <si>
+    <t>データベースのregistered_timeカラム値に検索ワードの結果が登録日時欄に表示されている事</t>
+  </si>
+  <si>
+    <t>表示されている更新日時の一覧</t>
+  </si>
+  <si>
+    <t>データベースのupdate_timeカラム値に検索ワードの結果が更新日時欄に表示されている事</t>
+  </si>
+  <si>
+    <t>ブラウザーの進むボタンでアカウント一覧画面が表示された時</t>
+  </si>
+  <si>
+    <t>ブラウザーの戻るボタンでアカウント一覧画面が表示された時</t>
   </si>
 </sst>
 </file>
@@ -476,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -498,17 +690,20 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,8 +1049,8 @@
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4" t="b">
-        <v>0</v>
+      <c r="I5" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3145,11 +3340,14 @@
       <c r="E90" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F90" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I90" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3165,11 +3363,14 @@
       <c r="E91" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F91" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I91" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3185,11 +3386,14 @@
       <c r="E92" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F92" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I92" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3205,8 +3409,14 @@
       <c r="E93" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F93" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H93" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I93" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3222,8 +3432,17 @@
       <c r="E94" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F94" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H94" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I94" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="95">
@@ -3239,8 +3458,17 @@
       <c r="E95" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F95" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H95" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I95" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="96">
@@ -3256,8 +3484,14 @@
       <c r="E96" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F96" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H96" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I96" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3273,8 +3507,14 @@
       <c r="E97" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F97" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H97" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I97" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3290,8 +3530,17 @@
       <c r="E98" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F98" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H98" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I98" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="99">
@@ -3307,8 +3556,17 @@
       <c r="E99" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F99" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H99" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I99" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="100">
@@ -3324,8 +3582,14 @@
       <c r="E100" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F100" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H100" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I100" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3341,8 +3605,14 @@
       <c r="E101" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F101" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H101" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I101" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3358,8 +3628,14 @@
       <c r="E102" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F102" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H102" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I102" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3375,8 +3651,14 @@
       <c r="E103" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F103" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H103" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I103" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3392,8 +3674,14 @@
       <c r="E104" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F104" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H104" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I104" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3409,8 +3697,14 @@
       <c r="E105" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F105" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H105" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I105" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3426,8 +3720,17 @@
       <c r="E106" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F106" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H106" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I106" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="107">
@@ -3443,8 +3746,17 @@
       <c r="E107" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F107" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H107" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I107" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="108">
@@ -3460,8 +3772,14 @@
       <c r="E108" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F108" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H108" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I108" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3477,8 +3795,14 @@
       <c r="E109" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F109" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H109" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I109" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3494,8 +3818,17 @@
       <c r="E110" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F110" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H110" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I110" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="111">
@@ -3511,8 +3844,17 @@
       <c r="E111" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F111" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H111" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I111" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="112">
@@ -3528,8 +3870,14 @@
       <c r="E112" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F112" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H112" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I112" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3545,8 +3893,14 @@
       <c r="E113" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F113" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H113" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I113" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3562,8 +3916,14 @@
       <c r="E114" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F114" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H114" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I114" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3579,8 +3939,14 @@
       <c r="E115" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F115" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H115" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I115" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3596,8 +3962,17 @@
       <c r="E116" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F116" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H116" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I116" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="117">
@@ -3613,8 +3988,17 @@
       <c r="E117" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F117" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H117" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I117" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="118">
@@ -3630,8 +4014,14 @@
       <c r="E118" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F118" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H118" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I118" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3647,8 +4037,14 @@
       <c r="E119" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F119" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H119" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I119" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3664,8 +4060,17 @@
       <c r="E120" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F120" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H120" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I120" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="121">
@@ -3681,8 +4086,17 @@
       <c r="E121" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F121" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H121" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I121" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="122">
@@ -3698,8 +4112,14 @@
       <c r="E122" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F122" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H122" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I122" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3715,8 +4135,14 @@
       <c r="E123" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F123" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H123" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I123" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3732,8 +4158,17 @@
       <c r="E124" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F124" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H124" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I124" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="125">
@@ -3749,8 +4184,17 @@
       <c r="E125" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F125" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H125" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I125" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="126">
@@ -3766,8 +4210,14 @@
       <c r="E126" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F126" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H126" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I126" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3783,8 +4233,14 @@
       <c r="E127" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F127" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H127" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I127" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3800,8 +4256,17 @@
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F128" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H128" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I128" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="129">
@@ -3817,8 +4282,17 @@
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F129" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H129" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I129" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="130">
@@ -3834,8 +4308,14 @@
       <c r="E130" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F130" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H130" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I130" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3851,8 +4331,14 @@
       <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F131" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H131" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I131" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3868,8 +4354,14 @@
       <c r="E132" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F132" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H132" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I132" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3885,8 +4377,14 @@
       <c r="E133" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F133" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H133" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I133" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3902,8 +4400,14 @@
       <c r="E134" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F134" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H134" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I134" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3919,8 +4423,14 @@
       <c r="E135" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F135" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H135" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I135" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3936,8 +4446,17 @@
       <c r="E136" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F136" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H136" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I136" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="137">
@@ -3953,8 +4472,17 @@
       <c r="E137" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F137" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H137" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I137" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="138">
@@ -3970,8 +4498,14 @@
       <c r="E138" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F138" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H138" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I138" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3987,8 +4521,14 @@
       <c r="E139" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F139" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H139" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I139" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4004,8 +4544,17 @@
       <c r="E140" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F140" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H140" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I140" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="141">
@@ -4021,8 +4570,17 @@
       <c r="E141" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F141" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H141" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I141" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="142">
@@ -4038,8 +4596,14 @@
       <c r="E142" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F142" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H142" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I142" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4055,8 +4619,14 @@
       <c r="E143" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F143" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H143" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I143" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4072,8 +4642,14 @@
       <c r="E144" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F144" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H144" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I144" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4089,8 +4665,14 @@
       <c r="E145" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F145" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H145" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I145" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4106,8 +4688,17 @@
       <c r="E146" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F146" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H146" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I146" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="147">
@@ -4123,8 +4714,17 @@
       <c r="E147" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F147" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H147" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I147" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="148">
@@ -4140,8 +4740,14 @@
       <c r="E148" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F148" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H148" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I148" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4157,8 +4763,14 @@
       <c r="E149" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F149" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H149" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I149" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4174,8 +4786,17 @@
       <c r="E150" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F150" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H150" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I150" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="151">
@@ -4191,8 +4812,17 @@
       <c r="E151" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F151" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H151" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I151" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="152">
@@ -4208,8 +4838,14 @@
       <c r="E152" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F152" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H152" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I152" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4225,8 +4861,14 @@
       <c r="E153" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F153" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H153" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I153" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4242,8 +4884,17 @@
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F154" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H154" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="155">
@@ -4259,8 +4910,17 @@
       <c r="E155" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F155" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H155" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="156">
@@ -4276,8 +4936,14 @@
       <c r="E156" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F156" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H156" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I156" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4293,8 +4959,14 @@
       <c r="E157" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F157" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H157" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I157" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4310,8 +4982,17 @@
       <c r="E158" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F158" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H158" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I158" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="159">
@@ -4327,8 +5008,17 @@
       <c r="E159" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F159" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H159" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I159" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="160">
@@ -4344,8 +5034,14 @@
       <c r="E160" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F160" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H160" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I160" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4361,8 +5057,14 @@
       <c r="E161" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F161" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H161" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I161" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4378,8 +5080,14 @@
       <c r="E162" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F162" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H162" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I162" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4395,8 +5103,14 @@
       <c r="E163" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F163" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H163" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I163" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4412,8 +5126,17 @@
       <c r="E164" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F164" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H164" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I164" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="165">
@@ -4429,8 +5152,17 @@
       <c r="E165" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F165" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H165" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I165" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="166">
@@ -4446,8 +5178,14 @@
       <c r="E166" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F166" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H166" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I166" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4463,8 +5201,14 @@
       <c r="E167" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F167" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H167" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I167" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4480,8 +5224,17 @@
       <c r="E168" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F168" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H168" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I168" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="169">
@@ -4497,8 +5250,17 @@
       <c r="E169" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F169" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H169" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I169" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="170">
@@ -4514,8 +5276,14 @@
       <c r="E170" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F170" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H170" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I170" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4531,8 +5299,14 @@
       <c r="E171" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F171" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H171" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I171" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4548,8 +5322,17 @@
       <c r="E172" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F172" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H172" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I172" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="173">
@@ -4565,8 +5348,17 @@
       <c r="E173" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F173" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H173" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I173" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="174">
@@ -4582,8 +5374,14 @@
       <c r="E174" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F174" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H174" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I174" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4599,8 +5397,14 @@
       <c r="E175" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F175" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H175" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I175" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4616,8 +5420,17 @@
       <c r="E176" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F176" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H176" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I176" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="177">
@@ -4633,8 +5446,17 @@
       <c r="E177" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F177" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H177" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I177" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="178">
@@ -4650,8 +5472,14 @@
       <c r="E178" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F178" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H178" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I178" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -4667,8 +5495,14 @@
       <c r="E179" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F179" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H179" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I179" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -4684,8 +5518,17 @@
       <c r="E180" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F180" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H180" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I180" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="181">
@@ -4701,8 +5544,17 @@
       <c r="E181" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F181" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H181" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I181" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="182">
@@ -4718,8 +5570,14 @@
       <c r="E182" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F182" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H182" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I182" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4735,8 +5593,14 @@
       <c r="E183" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F183" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H183" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I183" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -4752,8 +5616,17 @@
       <c r="E184" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F184" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H184" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I184" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="185">
@@ -4769,8 +5642,17 @@
       <c r="E185" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F185" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H185" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I185" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="186">
@@ -4786,8 +5668,14 @@
       <c r="E186" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F186" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H186" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I186" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -4803,19 +5691,82 @@
       <c r="E187" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F187" s="3">
+        <v>45337.0</v>
+      </c>
       <c r="H187" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I187" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
+      <c r="A188" s="2">
+        <v>185.0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" s="3">
+        <v>45337.0</v>
+      </c>
+      <c r="G188" s="7"/>
       <c r="H188" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I188" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
-      <c r="H189" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F189" s="3"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190">
+      <c r="F190" s="3"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191">
+      <c r="F191" s="3"/>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192">
+      <c r="F192" s="3"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193">
+      <c r="F193" s="3"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194">
+      <c r="F194" s="3"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195">
+      <c r="F195" s="3"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196">
+      <c r="F196" s="3"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197">
+      <c r="F197" s="3"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198">
+      <c r="I198" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4831,11 +5782,19 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.0"/>
+    <col customWidth="1" min="3" max="3" width="20.75"/>
+    <col customWidth="1" min="4" max="4" width="32.38"/>
+    <col customWidth="1" min="5" max="5" width="6.13"/>
+    <col customWidth="1" min="6" max="6" width="3.38"/>
+    <col customWidth="1" min="8" max="8" width="6.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
-        <v>137</v>
+      <c r="B1" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4899,17 +5858,23 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>1.0</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9">
-        <v>45323.0</v>
+      <c r="F4" s="3">
+        <v>45338.0</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
@@ -4921,6 +5886,2081 @@
       <c r="J4" s="1"/>
       <c r="K4" s="10"/>
       <c r="L4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9">
+        <v>31.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9">
+        <v>33.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9">
+        <v>35.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9">
+        <v>39.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9">
+        <v>41.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9">
+        <v>43.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9">
+        <v>47.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9">
+        <v>49.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9">
+        <v>51.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9">
+        <v>53.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9">
+        <v>57.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9">
+        <v>59.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9">
+        <v>61.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9">
+        <v>63.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9">
+        <v>65.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>66.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9">
+        <v>67.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9">
+        <v>69.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9">
+        <v>71.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9">
+        <v>73.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>74.0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9">
+        <v>75.0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>76.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9">
+        <v>77.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>78.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9">
+        <v>79.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="3">
+        <v>45338.0</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="H90" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
